--- a/04. Working with Excel(Openpyxl)/월별구매고객리스트.xlsx
+++ b/04. Working with Excel(Openpyxl)/월별구매고객리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ca549cd8e01d51/바탕 화면/Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_C96C9B7799D29D30B9FCC075AD9BBEFFC8375535" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D478554D-2FA7-47D0-9EEC-5C6AF2B9AB80}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="11_C96C9B7799D29D30B9FCC075AD9BBEFFC8375535" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8087723-F332-4A19-968B-CBB853C0966B}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1230" windowWidth="12810" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="1520" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>주식회사 지은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,6 +295,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,19 +590,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45202</v>
       </c>
@@ -647,7 +655,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45215</v>
       </c>
@@ -674,7 +682,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45221</v>
       </c>
@@ -701,7 +709,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45228</v>
       </c>
@@ -728,7 +736,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45228</v>
       </c>
@@ -767,20 +775,20 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -806,7 +814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45231</v>
       </c>
@@ -833,7 +841,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45234</v>
       </c>
@@ -860,7 +868,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45241</v>
       </c>
@@ -887,7 +895,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45242</v>
       </c>
@@ -914,7 +922,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45246</v>
       </c>
@@ -941,7 +949,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45255</v>
       </c>
@@ -968,7 +976,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45258</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45260</v>
       </c>
@@ -1032,25 +1040,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45273</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45277</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45282</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45287</v>
       </c>
@@ -1192,14 +1197,508 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945DDE6D-FBC4-4454-BF5E-CF50622DC732}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20000</v>
+      </c>
+      <c r="H3">
+        <f>C3*G3</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>18000</v>
+      </c>
+      <c r="H4">
+        <f>C4*G4</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>18000</v>
+      </c>
+      <c r="H5">
+        <f>C5*G5</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>36000</v>
+      </c>
+      <c r="H6">
+        <f>C6*G6</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>68000</v>
+      </c>
+      <c r="H7">
+        <f>C7*G7</f>
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>68000</v>
+      </c>
+      <c r="H8">
+        <f>C8*G14</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>18000</v>
+      </c>
+      <c r="H9">
+        <f>C9*G9</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>36000</v>
+      </c>
+      <c r="H10">
+        <f>C10*G10</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>45242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>36000</v>
+      </c>
+      <c r="H11">
+        <f>C11*G11</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>36000</v>
+      </c>
+      <c r="H12">
+        <f>C12*G12</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>18000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H15" si="0">C13*G13</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>20000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>20000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>36000</v>
+      </c>
+      <c r="H16">
+        <f>C16*G16</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>36000</v>
+      </c>
+      <c r="H17">
+        <f>C17*G17</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>18000</v>
+      </c>
+      <c r="H18">
+        <f>C18*G18</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>20000</v>
+      </c>
+      <c r="H19">
+        <f>C19*G19</f>
+        <v>80000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04. Working with Excel(Openpyxl)/월별구매고객리스트.xlsx
+++ b/04. Working with Excel(Openpyxl)/월별구매고객리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ca549cd8e01d51/바탕 화면/Book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ca549cd8e01d51/바탕 화면/Python_automation/Book/python_automation/04. Working with Excel(Openpyxl)/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="178" documentId="11_C96C9B7799D29D30B9FCC075AD9BBEFFC8375535" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8087723-F332-4A19-968B-CBB853C0966B}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1520" windowWidth="19200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="1520" windowWidth="19200" windowHeight="11250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="4" r:id="rId1"/>
@@ -295,10 +295,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8FDFB4-D0D8-4774-899E-2004CC1F68E4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1040,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
